--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07A83F-E307-4CFD-AF46-E53CF633B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A64507-9A40-4C00-94D3-9CC6053B1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>שם</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1HOh4oe3TyS0OnDUS16iqVDAZskFC-Qxa922_WN84NGE/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>ספירה</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\ [$-1010000]d/m;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +247,12 @@
       <u/>
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,6 +365,13 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,9 +483,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}" name="טבלה3" displayName="טבלה3" ref="A2:X18" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:X18" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}" name="טבלה3" displayName="טבלה3" ref="A2:Y18" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:Y18" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{5F638A5A-6250-48D0-817D-09421B4E389A}" name="שם"/>
     <tableColumn id="2" xr3:uid="{83E6D957-9379-40BC-9A59-18E8CC4E7491}" name=" ת.ז"/>
     <tableColumn id="3" xr3:uid="{2D5CF496-F814-4742-8F80-E8AD98637E15}" name=" מס נייד "/>
@@ -478,6 +494,7 @@
     <tableColumn id="6" xr3:uid="{EEE3B3DF-6B90-490B-9187-06A406D77A9A}" name=" סטטוס"/>
     <tableColumn id="7" xr3:uid="{96E28F45-A70E-446B-A4C1-710BB20152A6}" name="Thu 1/1"/>
     <tableColumn id="8" xr3:uid="{455EF17E-7CCC-467C-8B96-A6F34AF92553}" name="Thu 8/1" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{FEF02371-4CEF-477B-B51F-2F5EA874D962}" name="ספירה"/>
     <tableColumn id="9" xr3:uid="{A49FA043-0062-420F-B2D6-06049F828138}" name="Sun 11/1"/>
     <tableColumn id="10" xr3:uid="{4DA20F02-C854-4853-88E0-D2B02736213B}" name="Thu 22/1"/>
     <tableColumn id="11" xr3:uid="{F3C7B54F-6FE0-4134-85DD-C215A8C83FB1}" name="Thu 29/1" dataDxfId="5"/>
@@ -823,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -837,14 +854,15 @@
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="8" width="3.75" customWidth="1"/>
-    <col min="9" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="21" width="3.75" customWidth="1"/>
-    <col min="22" max="23" width="4.625" customWidth="1"/>
-    <col min="24" max="24" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="3.75" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="22" width="3.75" customWidth="1"/>
+    <col min="23" max="24" width="4.625" customWidth="1"/>
+    <col min="25" max="25" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:32" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:33" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -869,66 +887,69 @@
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -938,46 +959,46 @@
       <c r="H3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -988,8 +1009,9 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -999,17 +1021,26 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="O4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="X4">
+      <c r="R4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="Y4">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1019,17 +1050,26 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="O5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="X5">
+      <c r="R5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="Y5">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1037,119 +1077,171 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="Y6">
+        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>0.5</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="X6">
+      <c r="I7" s="16">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="Y7">
+        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="Y8">
+        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="Y9">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="Y10">
+        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
         <v>0.5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="X7">
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="Y11">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="X8">
-        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="X9">
-        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="X10">
-        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="X11">
-        <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1159,17 +1251,26 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="I12" s="16">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="O12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="X12">
+      <c r="R12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="Y12">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1179,17 +1280,26 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="I13" s="16">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="O13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="X13">
+      <c r="R13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="Y13">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1199,17 +1309,26 @@
       <c r="H14" s="5">
         <v>0.5</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="I14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="X14">
+      <c r="R14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="Y14">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1219,17 +1338,26 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="X15">
+      <c r="R15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="Y15">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1239,17 +1367,26 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="I16" s="16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="O16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="X16">
+      <c r="R16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="Y16">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1259,31 +1396,42 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="I17" s="16">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="O17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="X17">
+      <c r="R17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="Y17">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="I18" s="16"/>
+      <c r="L18" s="6"/>
+      <c r="O18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="X18">
+      <c r="R18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="Y18">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" xr:uid="{307CB26C-0FF0-4D78-9C74-21264EA86D06}"/>
+    <hyperlink ref="AA2" r:id="rId1" xr:uid="{307CB26C-0FF0-4D78-9C74-21264EA86D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>

--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A64507-9A40-4C00-94D3-9CC6053B1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543B627-FDDB-4F8F-9381-BAF977CAC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,13 +365,12 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,7 +842,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1020,7 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
@@ -1030,7 +1029,9 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -1050,7 +1051,7 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
@@ -1059,14 +1060,16 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="T5" s="5"/>
       <c r="Y5">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1079,7 +1082,7 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
@@ -1088,14 +1091,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="T6" s="5"/>
       <c r="Y6">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1108,7 +1113,7 @@
       <c r="H7" s="5">
         <v>0.5</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7">
         <v>9</v>
       </c>
       <c r="J7">
@@ -1117,14 +1122,16 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="T7" s="5"/>
       <c r="Y7">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -1137,21 +1144,22 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="16"/>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="T8" s="5"/>
       <c r="Y8">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1164,7 +1172,7 @@
       <c r="H9" s="5">
         <v>0.5</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
@@ -1173,14 +1181,16 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>0.5</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="T9" s="5"/>
       <c r="Y9">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -1193,7 +1203,7 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
@@ -1202,7 +1212,9 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1222,7 +1234,7 @@
       <c r="H11" s="5">
         <v>0.5</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
@@ -1231,7 +1243,9 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1251,7 +1265,7 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>9</v>
       </c>
       <c r="J12">
@@ -1260,7 +1274,9 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1280,7 +1296,7 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>6</v>
       </c>
       <c r="J13">
@@ -1289,14 +1305,16 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="T13" s="5"/>
       <c r="Y13">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -1309,7 +1327,7 @@
       <c r="H14" s="5">
         <v>0.5</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
@@ -1318,14 +1336,16 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="T14" s="5"/>
       <c r="Y14">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -1338,7 +1358,7 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
@@ -1347,14 +1367,16 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="T15" s="5"/>
       <c r="Y15">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -1367,7 +1389,7 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16">
         <v>9</v>
       </c>
       <c r="J16">
@@ -1376,7 +1398,9 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -1396,7 +1420,7 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17">
         <v>7</v>
       </c>
       <c r="J17">
@@ -1405,19 +1429,20 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="T17" s="5"/>
       <c r="Y17">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="6"/>
-      <c r="I18" s="16"/>
       <c r="L18" s="6"/>
       <c r="O18" s="6"/>
       <c r="Q18" s="6"/>

--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543B627-FDDB-4F8F-9381-BAF977CAC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FC436-D14C-4E6A-B40E-DC7307F2A38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>שם</t>
   </si>
@@ -144,15 +144,6 @@
   </si>
   <si>
     <t>מבחן מסכם</t>
-  </si>
-  <si>
-    <t>תהילה כנראה נרשמה הרגע</t>
-  </si>
-  <si>
-    <t>מוחמד אל עמור (כנראה נרשם הרגע)</t>
-  </si>
-  <si>
-    <t>קאהמרן (כנראה נרשמה הרגע)</t>
   </si>
   <si>
     <t>זום</t>
@@ -171,7 +162,13 @@
     <t>https://docs.google.com/spreadsheets/d/1HOh4oe3TyS0OnDUS16iqVDAZskFC-Qxa922_WN84NGE/edit?usp=sharing</t>
   </si>
   <si>
-    <t>ספירה</t>
+    <t>קאהמרן</t>
+  </si>
+  <si>
+    <t>תהילה</t>
+  </si>
+  <si>
+    <t>מוחמד אל עמור</t>
   </si>
 </sst>
 </file>
@@ -181,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\ [$-1010000]d/m;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,14 +197,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,12 +321,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -349,28 +337,22 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,9 +464,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}" name="טבלה3" displayName="טבלה3" ref="A2:Y18" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:Y18" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}" name="טבלה3" displayName="טבלה3" ref="A2:X18" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:X18" xr:uid="{9A4A2EF7-0FE6-4536-8833-F865C380D23F}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{5F638A5A-6250-48D0-817D-09421B4E389A}" name="שם"/>
     <tableColumn id="2" xr3:uid="{83E6D957-9379-40BC-9A59-18E8CC4E7491}" name=" ת.ז"/>
     <tableColumn id="3" xr3:uid="{2D5CF496-F814-4742-8F80-E8AD98637E15}" name=" מס נייד "/>
@@ -493,7 +475,6 @@
     <tableColumn id="6" xr3:uid="{EEE3B3DF-6B90-490B-9187-06A406D77A9A}" name=" סטטוס"/>
     <tableColumn id="7" xr3:uid="{96E28F45-A70E-446B-A4C1-710BB20152A6}" name="Thu 1/1"/>
     <tableColumn id="8" xr3:uid="{455EF17E-7CCC-467C-8B96-A6F34AF92553}" name="Thu 8/1" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{FEF02371-4CEF-477B-B51F-2F5EA874D962}" name="ספירה"/>
     <tableColumn id="9" xr3:uid="{A49FA043-0062-420F-B2D6-06049F828138}" name="Sun 11/1"/>
     <tableColumn id="10" xr3:uid="{4DA20F02-C854-4853-88E0-D2B02736213B}" name="Thu 22/1"/>
     <tableColumn id="11" xr3:uid="{F3C7B54F-6FE0-4134-85DD-C215A8C83FB1}" name="Thu 29/1" dataDxfId="5"/>
@@ -839,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="U2" sqref="G2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,15 +834,30 @@
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="8" width="3.75" customWidth="1"/>
-    <col min="9" max="9" width="3.75" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="22" width="3.75" customWidth="1"/>
-    <col min="23" max="24" width="4.625" customWidth="1"/>
-    <col min="25" max="25" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="21" width="3.75" customWidth="1"/>
+    <col min="22" max="23" width="4.625" customWidth="1"/>
+    <col min="24" max="24" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:33" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>18</v>
+      </c>
+      <c r="R1">
+        <v>25</v>
+      </c>
+      <c r="T1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -880,124 +876,121 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:32" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="11" t="s">
-        <v>43</v>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1008,168 +1001,158 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="X4">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="X5">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J6">
-        <v>0.8</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="X6">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.5</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="Y7">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="X7">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="X8">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.5</v>
       </c>
       <c r="I9">
@@ -1178,29 +1161,26 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="4">
         <v>0.5</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="Y9">
+      <c r="N9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="X9">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10">
@@ -1209,29 +1189,26 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="Y10">
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="X10">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.5</v>
       </c>
       <c r="I11">
@@ -1240,223 +1217,205 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="Y11">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="X11">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="Y12">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="X12">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="Y13">
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="X13">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="X14">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J15">
-        <v>0.8</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="X15">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="Y16">
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="X16">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="Y17">
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="X17">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="Y18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="X18">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AA2" r:id="rId1" xr:uid="{307CB26C-0FF0-4D78-9C74-21264EA86D06}"/>
+    <hyperlink ref="Z2" r:id="rId1" xr:uid="{307CB26C-0FF0-4D78-9C74-21264EA86D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>

--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FC436-D14C-4E6A-B40E-DC7307F2A38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C3A5B-4126-4218-BDBE-87188DC82CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="G2:U2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="L1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1">
         <v>18</v>
@@ -1108,13 +1108,16 @@
       <c r="K7" s="4">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="S7" s="4"/>
       <c r="X7">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1134,6 +1137,9 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
       <c r="N8" s="4"/>
@@ -1142,7 +1148,7 @@
       <c r="S8" s="4"/>
       <c r="X8">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1363,13 +1369,16 @@
       <c r="K16" s="4">
         <v>0</v>
       </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="S16" s="4"/>
       <c r="X16">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">

--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C3A5B-4126-4218-BDBE-87188DC82CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A90CC6-BBFD-40A2-AF61-984A159D3BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1052,13 +1052,16 @@
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="S5" s="4"/>
       <c r="X5">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1078,6 +1081,9 @@
         <v>1</v>
       </c>
       <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" s="4"/>
@@ -1086,7 +1092,7 @@
       <c r="S6" s="4"/>
       <c r="X6">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1109,6 +1115,9 @@
         <v>1</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" s="4"/>
@@ -1117,7 +1126,7 @@
       <c r="S7" s="4"/>
       <c r="X7">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1132,9 +1141,6 @@
       </c>
       <c r="I8">
         <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
@@ -1164,9 +1170,6 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9" s="4">
         <v>0.5</v>
       </c>
@@ -1183,21 +1186,8 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
+      <c r="H10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="N10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1217,15 +1207,7 @@
       <c r="H11" s="4">
         <v>0.5</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="N11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1251,10 +1233,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
+      <c r="K12" s="4"/>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" s="4"/>
@@ -1263,7 +1246,7 @@
       <c r="S12" s="4"/>
       <c r="X12">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1283,6 +1266,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" s="4"/>
@@ -1291,7 +1280,7 @@
       <c r="S13" s="4"/>
       <c r="X13">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1311,6 +1300,9 @@
         <v>1</v>
       </c>
       <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" s="4"/>
@@ -1319,7 +1311,7 @@
       <c r="S14" s="4"/>
       <c r="X14">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1339,6 +1331,9 @@
         <v>1</v>
       </c>
       <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
       <c r="N15" s="4"/>
@@ -1347,7 +1342,7 @@
       <c r="S15" s="4"/>
       <c r="X15">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1366,10 +1361,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" s="4"/>
@@ -1378,7 +1374,7 @@
       <c r="S16" s="4"/>
       <c r="X16">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -1398,6 +1394,12 @@
         <v>1</v>
       </c>
       <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" s="4"/>
@@ -1406,7 +1408,7 @@
       <c r="S17" s="4"/>
       <c r="X17">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A90CC6-BBFD-40A2-AF61-984A159D3BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7851180-5D51-42C9-8752-5702A72FFA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cs3e/Ex/MazpenHelekGimel.xlsx
+++ b/cs3e/Ex/MazpenHelekGimel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stra\repos\BeautifulYesodot\cs3e\Ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7851180-5D51-42C9-8752-5702A72FFA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095810DC-A77B-4363-8B93-F4134C3169CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,13 +1021,15 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="S4" s="4"/>
       <c r="X4">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1055,13 +1057,18 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="S5" s="4"/>
       <c r="X5">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1086,13 +1093,15 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="S6" s="4"/>
       <c r="X6">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1120,13 +1129,15 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="S7" s="4"/>
       <c r="X7">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1140,6 +1151,9 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="4">
@@ -1154,7 +1168,7 @@
       <c r="S8" s="4"/>
       <c r="X8">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1240,13 +1254,15 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="S12" s="4"/>
       <c r="X12">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1274,13 +1290,15 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="S13" s="4"/>
       <c r="X13">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1294,7 +1312,7 @@
         <v>0.5</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1302,16 +1320,21 @@
       <c r="K14" s="4">
         <v>1</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="S14" s="4"/>
       <c r="X14">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>4.9000000000000004</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1368,13 +1391,15 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="S16" s="4"/>
       <c r="X16">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -1402,13 +1427,15 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="S17" s="4"/>
       <c r="X17">
         <f>SUM(טבלה3[[#This Row],[Thu 1/1]:[ספייר]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
